--- a/PREGAME/1.ELICITACIÓN/1.2 Cronograma/Cronograma G3 V1.0.xlsx
+++ b/PREGAME/1.ELICITACIÓN/1.2 Cronograma/Cronograma G3 V1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Documentos\_23305_G3_ADS\1.-Documentacion\Cronograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\OneDrive\Documentos\SEXTO\ANALISIS\_23305_G3_ADS\PREGAME\1.ELICITACIÓN\1.2 Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9FCD27-4633-4BAD-9975-459BAB95257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Objetivo General:</t>
   </si>
@@ -49,9 +39,6 @@
     <t>Actividades</t>
   </si>
   <si>
-    <t>Responsables</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -70,11 +57,6 @@
     <t>No iniciado</t>
   </si>
   <si>
-    <t>Ibarra Ronny
-Rivera Carlos
-Sanches Angelo</t>
-  </si>
-  <si>
     <t>Entrevista</t>
   </si>
   <si>
@@ -115,13 +97,61 @@
   </si>
   <si>
     <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Revisar  FODA</t>
+  </si>
+  <si>
+    <t>REVISAR PREGUNTAS Y ENTREVISTA</t>
+  </si>
+  <si>
+    <t>ELABORA LAS PREGUNTAS</t>
+  </si>
+  <si>
+    <t>PLANIFICAR CRONOGRAMA</t>
+  </si>
+  <si>
+    <t>ENTREVISTA</t>
+  </si>
+  <si>
+    <t>PLANIFICAR PERFIL DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>INTRODUCCIÓN DEL PERFIL</t>
+  </si>
+  <si>
+    <t>FROMULACIÓN Y JUSTIUFUCACIÓN DEL PROBLEMA (PLANTEAMIENTO DE TRABAJAO)</t>
+  </si>
+  <si>
+    <t>FROMULAR PROBLEMA</t>
+  </si>
+  <si>
+    <t>JUSTIFICAR</t>
+  </si>
+  <si>
+    <t>SISTEMAS DE OBJETIVOS</t>
+  </si>
+  <si>
+    <t>OBJETIVO</t>
+  </si>
+  <si>
+    <t>OBJETIVOS ESPECIFICOS</t>
+  </si>
+  <si>
+    <t>ALCANZE</t>
+  </si>
+  <si>
+    <t>METODOLOGIA</t>
+  </si>
+  <si>
+    <t>DEFENSA DE IDEAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +207,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -247,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -396,12 +427,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,40 +492,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,54 +860,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.3984375" customWidth="1"/>
-    <col min="2" max="8" width="25.59765625" customWidth="1"/>
-    <col min="9" max="12" width="15.59765625" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" customWidth="1"/>
-    <col min="14" max="15" width="10.8984375" customWidth="1"/>
-    <col min="19" max="19" width="12.296875" customWidth="1"/>
-    <col min="20" max="20" width="28.8984375" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="15" width="10.88671875" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="3" spans="1:20" ht="42.75" customHeight="1">
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:20">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -872,111 +917,105 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="I6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="4">
         <v>23</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="J7" s="4">
         <v>24</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="K7" s="4">
         <v>25</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="27" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="4">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4">
-        <v>24</v>
-      </c>
       <c r="L7" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R7" s="4">
-        <v>31</v>
-      </c>
-      <c r="S7" s="4">
         <v>1</v>
       </c>
-      <c r="T7" s="22"/>
-    </row>
-    <row r="8" spans="1:20" ht="41.4">
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:19" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="26"/>
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -985,27 +1024,24 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="8" t="s">
+      <c r="S8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="41.4">
-      <c r="A9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -1015,25 +1051,22 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="41.4">
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -1043,25 +1076,22 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="41.4">
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -1071,25 +1101,22 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="41.4">
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -1099,25 +1126,22 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="41.4">
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -1127,23 +1151,22 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" ht="41.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="H14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1153,34 +1176,99 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="17" spans="9:9">
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="I6:Q6"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="J6:R6"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
